--- a/Regression/Scenarios/EmbeddingPython/config.xlsx
+++ b/Regression/Scenarios/EmbeddingPython/config.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kfrey\Git\DtkTrunk\Regression\Scenarios\EmbeddingPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167F9ABB-E8E9-4ECD-91F3-9DC841BE509E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="270" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="270" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
   <si>
     <t>Campaign_Filename</t>
   </si>
@@ -284,12 +285,6 @@
     <t>Mortality_Blocking_Immunity_Duration_Before_Decay</t>
   </si>
   <si>
-    <t>Number_Basestrains</t>
-  </si>
-  <si>
-    <t>Number_Substrains</t>
-  </si>
-  <si>
     <t>Population_Density_Infectivity_Correction</t>
   </si>
   <si>
@@ -360,12 +355,15 @@
   </si>
   <si>
     <t>Enable_Infectivity_Reservoir</t>
+  </si>
+  <si>
+    <t>Enable_Strain_Tracking</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -715,7 +713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -886,7 +884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -1062,7 +1060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -1119,11 +1117,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A27" sqref="A27:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1214,15 +1212,15 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="12.2" customHeight="1">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1230,7 +1228,7 @@
     </row>
     <row r="13" spans="1:2" ht="12.2" customHeight="1">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1238,7 +1236,7 @@
     </row>
     <row r="14" spans="1:2" ht="12.2" customHeight="1">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1246,23 +1244,23 @@
     </row>
     <row r="15" spans="1:2" ht="12.2" customHeight="1">
       <c r="A15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="12.2" customHeight="1">
       <c r="A16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12.2" customHeight="1">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1270,121 +1268,113 @@
     </row>
     <row r="18" spans="1:2" ht="12.2" customHeight="1">
       <c r="A18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="12.2" customHeight="1">
       <c r="A19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12.2" customHeight="1">
       <c r="A20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="12.2" customHeight="1">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12.2" customHeight="1">
       <c r="A22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="B22" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="12.2" customHeight="1">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12.2" customHeight="1">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B24">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12.2" customHeight="1">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B25">
-        <v>60</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12.2" customHeight="1">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12.2" customHeight="1">
       <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
         <v>87</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="12.2" customHeight="1">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
         <v>88</v>
-      </c>
-      <c r="B28" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>89</v>
       </c>
-      <c r="B29" t="s">
-        <v>90</v>
+      <c r="B29">
+        <v>0.1</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B30">
-        <v>0.1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B31">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32">
         <v>1</v>
       </c>
     </row>
@@ -1399,7 +1389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -1414,7 +1404,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.2" customHeight="1">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -1422,23 +1412,23 @@
     </row>
     <row r="2" spans="1:2" ht="12.2" customHeight="1">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12.2" customHeight="1">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12.2" customHeight="1">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1446,7 +1436,7 @@
     </row>
     <row r="16" spans="1:2" ht="12.2" customHeight="1">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1454,7 +1444,7 @@
     </row>
     <row r="17" spans="1:2" ht="12.2" customHeight="1">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1462,7 +1452,7 @@
     </row>
     <row r="18" spans="1:2" ht="12.2" customHeight="1">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1470,7 +1460,7 @@
     </row>
     <row r="19" spans="1:2" ht="12.2" customHeight="1">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1478,7 +1468,7 @@
     </row>
     <row r="20" spans="1:2" ht="12.2" customHeight="1">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1486,7 +1476,7 @@
     </row>
     <row r="21" spans="1:2" ht="12.2" customHeight="1">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1503,7 +1493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -1518,7 +1508,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.2" customHeight="1">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -1526,7 +1516,7 @@
     </row>
     <row r="2" spans="1:2" ht="12.2" customHeight="1">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1534,7 +1524,7 @@
     </row>
     <row r="3" spans="1:2" ht="12.2" customHeight="1">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1542,7 +1532,7 @@
     </row>
     <row r="4" spans="1:2" ht="12.2" customHeight="1">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1550,7 +1540,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B5">
         <v>0</v>
